--- a/chungsuclienquan.xlsx
+++ b/chungsuclienquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>accName</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>JuLy7th</t>
+  </si>
+  <si>
+    <t>trinhnguyen</t>
+  </si>
+  <si>
+    <t>400 điểm</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,6 +569,17 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
         <v>45878</v>
       </c>
     </row>

--- a/chungsuclienquan.xlsx
+++ b/chungsuclienquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>accName</t>
   </si>
@@ -86,13 +86,70 @@
   </si>
   <si>
     <t>400 điểm</t>
+  </si>
+  <si>
+    <t>fRD5M4eP2W</t>
+  </si>
+  <si>
+    <t>50 bi</t>
+  </si>
+  <si>
+    <t>FdaCT9atw4</t>
+  </si>
+  <si>
+    <t>75 bi</t>
+  </si>
+  <si>
+    <t>LC9dYY4Fsk</t>
+  </si>
+  <si>
+    <t>25 bi</t>
+  </si>
+  <si>
+    <t>J4SbX7DX9h</t>
+  </si>
+  <si>
+    <t>P5Aj5ufaeG</t>
+  </si>
+  <si>
+    <t>u2D8iyHZ7D</t>
+  </si>
+  <si>
+    <t>iEF97buWdi</t>
+  </si>
+  <si>
+    <t>40 bi</t>
+  </si>
+  <si>
+    <t>VS74XdpifT</t>
+  </si>
+  <si>
+    <t>80 bi</t>
+  </si>
+  <si>
+    <t>YT93VL3vgB</t>
+  </si>
+  <si>
+    <t>u8zV27ptnQ</t>
+  </si>
+  <si>
+    <t>20 bi</t>
+  </si>
+  <si>
+    <t>rvycM8fJ5H</t>
+  </si>
+  <si>
+    <t>tki4xhi4pM</t>
+  </si>
+  <si>
+    <t>487BpPp2CK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +157,23 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF081B3A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF080809"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF080809"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,18 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -462,7 +541,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -473,7 +552,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -484,7 +563,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -495,7 +574,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -506,7 +585,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="43.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -517,7 +596,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="43.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -528,7 +607,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="43.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -539,7 +618,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -550,7 +629,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -561,7 +640,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -572,7 +651,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -581,6 +660,171 @@
       </c>
       <c r="C13" s="1">
         <v>45878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.8">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45955</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -606,7 +850,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chungsuclienquan.xlsx
+++ b/chungsuclienquan.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -531,300 +531,300 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.8">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2">
-      <c r="A3" s="2" t="s">
+      <c r="C17" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8">
-      <c r="A4" s="2" t="s">
+      <c r="C18" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C19" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2">
-      <c r="A6" s="2" t="s">
+      <c r="C20" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2">
-      <c r="A7" s="2" t="s">
+      <c r="C21" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2">
-      <c r="A8" s="2" t="s">
+      <c r="C22" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2">
-      <c r="A9" s="2" t="s">
+      <c r="C23" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8">
-      <c r="A10" s="2" t="s">
+      <c r="C24" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C25" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C26" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8">
-      <c r="A13" s="2" t="s">
+      <c r="C27" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.8">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
       <c r="C28" s="1">
-        <v>45955</v>
+        <v>45878</v>
       </c>
     </row>
   </sheetData>

--- a/chungsuclienquan.xlsx
+++ b/chungsuclienquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="91">
   <si>
     <t>accName</t>
   </si>
@@ -143,6 +143,159 @@
   </si>
   <si>
     <t>487BpPp2CK</t>
+  </si>
+  <si>
+    <t>F7Qd9A2MKe</t>
+  </si>
+  <si>
+    <t>A9P4ZKQ2eD</t>
+  </si>
+  <si>
+    <t>M2ZQ9D4A7P</t>
+  </si>
+  <si>
+    <t>100 bi</t>
+  </si>
+  <si>
+    <t>QK7A2Z9P4D</t>
+  </si>
+  <si>
+    <t>Z4Q9P7A2KD</t>
+  </si>
+  <si>
+    <t>125 bi</t>
+  </si>
+  <si>
+    <t>M9A4ZQ2KP7</t>
+  </si>
+  <si>
+    <t>150 bi</t>
+  </si>
+  <si>
+    <t>P2QZ9A4K7D</t>
+  </si>
+  <si>
+    <t>A7Q4Z2P9KD</t>
+  </si>
+  <si>
+    <t>ZQ2A9P7D4K</t>
+  </si>
+  <si>
+    <t>M4Z9Q7A2KP</t>
+  </si>
+  <si>
+    <t>P9A7QZ2K4D</t>
+  </si>
+  <si>
+    <t>Z2Q4A9KP7D</t>
+  </si>
+  <si>
+    <t>A4ZQ9P7KD2</t>
+  </si>
+  <si>
+    <t>MZ9A2Q4KP7</t>
+  </si>
+  <si>
+    <t>Q7Z9A4KP2D</t>
+  </si>
+  <si>
+    <t>P4A9ZQ7K2D</t>
+  </si>
+  <si>
+    <t>Z9Q2A7KP4D</t>
+  </si>
+  <si>
+    <t>M2QZ4A9KP7</t>
+  </si>
+  <si>
+    <t>A7P9QZ4K2D</t>
+  </si>
+  <si>
+    <t>Z4Q9A2KP7D</t>
+  </si>
+  <si>
+    <t>M9Z7Q2A4KP</t>
+  </si>
+  <si>
+    <t>P2A9QZ7K4D</t>
+  </si>
+  <si>
+    <t>ZQ7A4P9K2D</t>
+  </si>
+  <si>
+    <t>M4Z2Q9A7KP</t>
+  </si>
+  <si>
+    <t>A9Z4Q2KP7D</t>
+  </si>
+  <si>
+    <t>P7Q9A4ZK2D</t>
+  </si>
+  <si>
+    <t>Z2A4Q9KP7D</t>
+  </si>
+  <si>
+    <t>M9Q7A4Z2KP</t>
+  </si>
+  <si>
+    <t>P4ZQ9A7K2D</t>
+  </si>
+  <si>
+    <t>Z9A2Q4KP7D</t>
+  </si>
+  <si>
+    <t>A2QZ9P4K7D</t>
+  </si>
+  <si>
+    <t>M7Q4Z9A2KP</t>
+  </si>
+  <si>
+    <t>P9ZQ2A4K7D</t>
+  </si>
+  <si>
+    <t>Z4A9Q7KP2D</t>
+  </si>
+  <si>
+    <t>M2ZQ4A9KP7</t>
+  </si>
+  <si>
+    <t>P7A9ZQ4K2D</t>
+  </si>
+  <si>
+    <t>Z9Q4A2KP7D</t>
+  </si>
+  <si>
+    <t>M4QZ9A7KP2</t>
+  </si>
+  <si>
+    <t>P2Z9Q4AK7D</t>
+  </si>
+  <si>
+    <t>Z7A9Q4KP2D</t>
+  </si>
+  <si>
+    <t>M9Q2Z4A7KP</t>
+  </si>
+  <si>
+    <t>P4A7Z9QK2D</t>
+  </si>
+  <si>
+    <t>Z9Q4KP7A2D</t>
+  </si>
+  <si>
+    <t>M2Z9Q4A7KP</t>
+  </si>
+  <si>
+    <t>P7Q4Z9A2KD</t>
+  </si>
+  <si>
+    <t>Z4A9Q7K2PD</t>
+  </si>
+  <si>
+    <t>M9QZ2A4KP7</t>
+  </si>
+  <si>
+    <t>P2A4Z9Q7KD</t>
   </si>
 </sst>
 </file>
@@ -508,15 +661,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -531,299 +684,827 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+      <c r="A2" t="s">
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
-        <v>45955</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>45955</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
+      <c r="A4" t="s">
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1">
-        <v>45955</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
+      <c r="A5" t="s">
+        <v>72</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C13" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.8">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="1">
-        <v>45955</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
-        <v>45878</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.2">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>45878</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>45878</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="22.8">
+      <c r="A56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.2">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2">
+      <c r="A71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2">
+      <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8">
+      <c r="A73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C75" s="1">
         <v>45878</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8">
-      <c r="A28" s="2" t="s">
+    <row r="76" spans="1:3" ht="28.8">
+      <c r="A76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C76" s="1">
         <v>45878</v>
       </c>
     </row>
@@ -834,12 +1515,857 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:C76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="22.8">
+      <c r="A56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="33" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.2">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2">
+      <c r="A71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2">
+      <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8">
+      <c r="A73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8">
+      <c r="A76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C49">
+    <sortCondition descending="1" ref="C2:C49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
